--- a/Team-Data/2014-15/1-20-2014-15.xlsx
+++ b/Team-Data/2014-15/1-20-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -765,7 +832,7 @@
         <v>27</v>
       </c>
       <c r="AK2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL2" t="n">
         <v>6</v>
@@ -777,10 +844,10 @@
         <v>3</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>9</v>
@@ -804,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
         <v>13</v>
@@ -813,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -950,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM3" t="n">
         <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>17</v>
@@ -974,13 +1041,13 @@
         <v>13</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
@@ -992,7 +1059,7 @@
         <v>25</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-2.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
         <v>19</v>
@@ -1162,7 +1229,7 @@
         <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW4" t="n">
         <v>21</v>
@@ -1171,13 +1238,13 @@
         <v>24</v>
       </c>
       <c r="AY4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ4" t="n">
         <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB4" t="n">
         <v>24</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1514,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
         <v>20</v>
@@ -1690,10 +1757,10 @@
         <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
         <v>12</v>
@@ -1714,7 +1781,7 @@
         <v>23</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="n">
         <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.707</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
       </c>
       <c r="I8" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="J8" t="n">
-        <v>86.7</v>
+        <v>86.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.47</v>
@@ -1785,43 +1852,43 @@
         <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O8" t="n">
         <v>17.5</v>
       </c>
       <c r="P8" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R8" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T8" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z8" t="n">
         <v>20.5</v>
@@ -1830,34 +1897,34 @@
         <v>22.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>108.6</v>
+        <v>108.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
@@ -1869,28 +1936,28 @@
         <v>12</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP8" t="n">
         <v>16</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
       </c>
       <c r="AS8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT8" t="n">
         <v>18</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>17</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW8" t="n">
         <v>11</v>
@@ -1899,7 +1966,7 @@
         <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ8" t="n">
         <v>15</v>
@@ -1911,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -1940,46 +2007,46 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="n">
         <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>0.429</v>
+        <v>0.439</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J9" t="n">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M9" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.321</v>
+        <v>0.32</v>
       </c>
       <c r="O9" t="n">
         <v>18.9</v>
       </c>
       <c r="P9" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.736</v>
+        <v>0.737</v>
       </c>
       <c r="R9" t="n">
         <v>12.5</v>
@@ -1988,19 +2055,19 @@
         <v>33.3</v>
       </c>
       <c r="T9" t="n">
-        <v>45.7</v>
+        <v>45.8</v>
       </c>
       <c r="U9" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V9" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y9" t="n">
         <v>5.9</v>
@@ -2009,16 +2076,16 @@
         <v>23.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
         <v>101.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.7</v>
+        <v>-2.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
@@ -2030,7 +2097,7 @@
         <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -2042,7 +2109,7 @@
         <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM9" t="n">
         <v>12</v>
@@ -2051,7 +2118,7 @@
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP9" t="n">
         <v>3</v>
@@ -2066,10 +2133,10 @@
         <v>9</v>
       </c>
       <c r="AT9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
         <v>18</v>
@@ -2078,7 +2145,7 @@
         <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>28</v>
@@ -2087,10 +2154,10 @@
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC9" t="n">
         <v>23</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2303,7 @@
         <v>25</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2251,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="AU10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
@@ -2263,7 +2330,7 @@
         <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2415,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n">
         <v>13</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J12" t="n">
-        <v>83.2</v>
+        <v>83</v>
       </c>
       <c r="K12" t="n">
         <v>0.44</v>
@@ -2513,37 +2580,37 @@
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O12" t="n">
-        <v>17.4</v>
+        <v>17.8</v>
       </c>
       <c r="P12" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.714</v>
+        <v>0.712</v>
       </c>
       <c r="R12" t="n">
         <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
         <v>21.1</v>
       </c>
       <c r="V12" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="W12" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X12" t="n">
         <v>4.5</v>
@@ -2552,31 +2619,31 @@
         <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
         <v>22</v>
@@ -2597,10 +2664,10 @@
         <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2612,7 +2679,7 @@
         <v>22</v>
       </c>
       <c r="AT12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU12" t="n">
         <v>17</v>
@@ -2627,19 +2694,19 @@
         <v>20</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
         <v>8</v>
       </c>
       <c r="BC12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-2</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>23</v>
@@ -2797,16 +2864,16 @@
         <v>5</v>
       </c>
       <c r="AU13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY13" t="n">
         <v>18</v>
@@ -2818,7 +2885,7 @@
         <v>13</v>
       </c>
       <c r="BB13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC13" t="n">
         <v>18</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2998,7 @@
         <v>5</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>8</v>
@@ -2961,7 +3028,7 @@
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
@@ -2982,13 +3049,13 @@
         <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW14" t="n">
         <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>0.293</v>
+        <v>0.286</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M15" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O15" t="n">
-        <v>18.3</v>
+        <v>18.6</v>
       </c>
       <c r="P15" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
       <c r="R15" t="n">
         <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T15" t="n">
-        <v>43.2</v>
+        <v>43</v>
       </c>
       <c r="U15" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V15" t="n">
         <v>12.9</v>
@@ -3098,19 +3165,19 @@
         <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6</v>
+        <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,55 +3189,55 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="n">
         <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM15" t="n">
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS15" t="n">
         <v>21</v>
       </c>
-      <c r="AR15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>19</v>
-      </c>
       <c r="AT15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
         <v>9</v>
@@ -3179,10 +3246,10 @@
         <v>19</v>
       </c>
       <c r="BA15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3310,7 +3377,7 @@
         <v>6</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3358,7 +3425,7 @@
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA16" t="n">
         <v>12</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="n">
         <v>18</v>
       </c>
       <c r="F17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" t="n">
-        <v>0.439</v>
+        <v>0.45</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="J17" t="n">
-        <v>74.09999999999999</v>
+        <v>74.3</v>
       </c>
       <c r="K17" t="n">
         <v>0.46</v>
@@ -3426,22 +3493,22 @@
         <v>20.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O17" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P17" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q17" t="n">
         <v>0.737</v>
       </c>
       <c r="R17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="S17" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="T17" t="n">
         <v>37</v>
@@ -3450,10 +3517,10 @@
         <v>20.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X17" t="n">
         <v>4</v>
@@ -3462,19 +3529,19 @@
         <v>4.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
         <v>20.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>93.3</v>
+        <v>93.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.8</v>
+        <v>-3.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
         <v>17</v>
@@ -3519,7 +3586,7 @@
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3528,13 +3595,13 @@
         <v>27</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AW17" t="n">
         <v>8</v>
       </c>
       <c r="AX17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY17" t="n">
         <v>7</v>
@@ -3543,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3671,7 +3738,7 @@
         <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>25</v>
@@ -3719,10 +3786,10 @@
         <v>18</v>
       </c>
       <c r="AY18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3871,19 +3938,19 @@
         <v>20</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT19" t="n">
         <v>27</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -3942,67 +4009,67 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" t="n">
         <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>0.475</v>
+        <v>0.488</v>
       </c>
       <c r="H20" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I20" t="n">
         <v>38.3</v>
       </c>
       <c r="J20" t="n">
-        <v>83.7</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="O20" t="n">
         <v>17.3</v>
       </c>
       <c r="P20" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.762</v>
+        <v>0.753</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="S20" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.6</v>
+        <v>44</v>
       </c>
       <c r="U20" t="n">
         <v>21</v>
       </c>
       <c r="V20" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W20" t="n">
         <v>7.1</v>
       </c>
       <c r="X20" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
@@ -4011,19 +4078,19 @@
         <v>19.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
         <v>100.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>16</v>
@@ -4032,13 +4099,13 @@
         <v>16</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
@@ -4047,7 +4114,7 @@
         <v>25</v>
       </c>
       <c r="AM20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN20" t="n">
         <v>21</v>
@@ -4056,31 +4123,31 @@
         <v>16</v>
       </c>
       <c r="AP20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS20" t="n">
         <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
       </c>
       <c r="AW20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
@@ -4092,7 +4159,7 @@
         <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -4220,13 +4287,13 @@
         <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK21" t="n">
         <v>22</v>
       </c>
       <c r="AL21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM21" t="n">
         <v>19</v>
@@ -4247,19 +4314,19 @@
         <v>21</v>
       </c>
       <c r="AS21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT21" t="n">
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV21" t="n">
         <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" t="n">
         <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>0.512</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,49 +4391,49 @@
         <v>37.5</v>
       </c>
       <c r="J22" t="n">
-        <v>84.5</v>
+        <v>84.3</v>
       </c>
       <c r="K22" t="n">
         <v>0.444</v>
       </c>
       <c r="L22" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M22" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.324</v>
+        <v>0.327</v>
       </c>
       <c r="O22" t="n">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="P22" t="n">
-        <v>23.8</v>
+        <v>24.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R22" t="n">
         <v>12.2</v>
       </c>
       <c r="S22" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="T22" t="n">
-        <v>46.6</v>
+        <v>46.8</v>
       </c>
       <c r="U22" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="V22" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W22" t="n">
         <v>7.2</v>
       </c>
       <c r="X22" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y22" t="n">
         <v>4.6</v>
@@ -4375,31 +4442,31 @@
         <v>22.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE22" t="n">
         <v>15</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>14</v>
       </c>
       <c r="AF22" t="n">
         <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
         <v>12</v>
@@ -4408,13 +4475,13 @@
         <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM22" t="n">
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
         <v>11</v>
@@ -4435,10 +4502,10 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV22" t="n">
         <v>26</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>25</v>
       </c>
       <c r="AW22" t="n">
         <v>20</v>
@@ -4447,7 +4514,7 @@
         <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -4488,82 +4555,82 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G23" t="n">
-        <v>0.349</v>
+        <v>0.341</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="J23" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="L23" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="P23" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.731</v>
+        <v>0.732</v>
       </c>
       <c r="R23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>40.2</v>
+        <v>40.5</v>
       </c>
       <c r="U23" t="n">
         <v>20.2</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W23" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.2</v>
+        <v>95</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-5.8</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4572,19 +4639,19 @@
         <v>23</v>
       </c>
       <c r="AF23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG23" t="n">
         <v>25</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>23</v>
       </c>
       <c r="AH23" t="n">
         <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
         <v>14</v>
@@ -4593,7 +4660,7 @@
         <v>18</v>
       </c>
       <c r="AM23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN23" t="n">
         <v>7</v>
@@ -4611,34 +4678,34 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AV23" t="n">
         <v>19</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-12.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4784,7 +4851,7 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4811,7 +4878,7 @@
         <v>5</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4975,16 +5042,16 @@
         <v>18</v>
       </c>
       <c r="AS25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
         <v>19</v>
       </c>
       <c r="AU25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW25" t="n">
         <v>7</v>
@@ -4996,7 +5063,7 @@
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -5124,13 +5191,13 @@
         <v>3</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK26" t="n">
         <v>18</v>
@@ -5160,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU26" t="n">
         <v>9</v>
@@ -5187,7 +5254,7 @@
         <v>6</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>21</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -5416,64 +5483,64 @@
         <v>38.4</v>
       </c>
       <c r="J28" t="n">
-        <v>83.40000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
         <v>22.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.372</v>
+        <v>0.375</v>
       </c>
       <c r="O28" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="P28" t="n">
-        <v>22.3</v>
+        <v>22</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
         <v>34</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="V28" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
         <v>5.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>102</v>
+        <v>101.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AD28" t="n">
         <v>5</v>
@@ -5497,10 +5564,10 @@
         <v>16</v>
       </c>
       <c r="AK28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL28" t="n">
         <v>10</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>11</v>
       </c>
       <c r="AM28" t="n">
         <v>15</v>
@@ -5509,13 +5576,13 @@
         <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5524,25 +5591,25 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
       </c>
       <c r="AX28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA28" t="n">
         <v>22</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>5.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
         <v>9</v>
@@ -5688,7 +5755,7 @@
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
@@ -5849,7 +5916,7 @@
         <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5873,7 +5940,7 @@
         <v>23</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
         <v>15</v>
@@ -5888,7 +5955,7 @@
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>25</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
@@ -6028,10 +6095,10 @@
         <v>4</v>
       </c>
       <c r="AF31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH31" t="n">
         <v>17</v>
@@ -6070,7 +6137,7 @@
         <v>11</v>
       </c>
       <c r="AT31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU31" t="n">
         <v>4</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-20-2014-15</t>
+          <t>2015-01-20</t>
         </is>
       </c>
     </row>
